--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.8.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.8.xlsx
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>60.95</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01633</v>
+        <v>0.01752</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00817</v>
+        <v>0.00876</v>
       </c>
       <c r="F2" t="n">
-        <v>1.38597</v>
+        <v>1.63116</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>44.5</v>
+        <v>44.65</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04225</v>
+        <v>0.04865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02112</v>
+        <v>0.02433</v>
       </c>
       <c r="F3" t="n">
-        <v>2.23544</v>
+        <v>2.6725</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -524,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.25</v>
+        <v>26.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.07103</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02005</v>
+        <v>0.01776</v>
       </c>
       <c r="F4" t="n">
-        <v>3.03245</v>
+        <v>2.58436</v>
       </c>
       <c r="G4" t="n">
         <v>0.15</v>
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>33.65</v>
+        <v>36.55</v>
       </c>
       <c r="D5" t="n">
-        <v>0.029</v>
+        <v>0.03596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00725</v>
+        <v>0.00899</v>
       </c>
       <c r="F5" t="n">
-        <v>1.56572</v>
+        <v>2.16698</v>
       </c>
       <c r="G5" t="n">
         <v>0.85</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.25</v>
+        <v>20.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04055</v>
+        <v>0.04779</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00676</v>
+        <v>0.00797</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7893</v>
+        <v>1.96758</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07235</v>
+        <v>0.08927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01206</v>
+        <v>0.01488</v>
       </c>
       <c r="F7" t="n">
-        <v>2.21504</v>
+        <v>2.66363</v>
       </c>
       <c r="G7" t="n">
         <v>0.15</v>
@@ -616,16 +616,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>13.05</v>
+        <v>12.25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07414</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00927</v>
+        <v>0.01196</v>
       </c>
       <c r="F8" t="n">
-        <v>1.71121</v>
+        <v>2.32252</v>
       </c>
       <c r="G8" t="n">
         <v>0.15</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04524</v>
+        <v>0.05457</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00566</v>
+        <v>0.00682</v>
       </c>
       <c r="F9" t="n">
-        <v>1.61978</v>
+        <v>1.85404</v>
       </c>
       <c r="G9" t="n">
         <v>0.85</v>
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6</v>
+        <v>13.55</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05833</v>
+        <v>0.04845</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00583</v>
+        <v>0.00485</v>
       </c>
       <c r="F10" t="n">
-        <v>1.89821</v>
+        <v>1.55669</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>10.45</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11922</v>
+        <v>0.13621</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01192</v>
+        <v>0.01362</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2675</v>
+        <v>2.65155</v>
       </c>
       <c r="G11" t="n">
         <v>0.15</v>
